--- a/input.xlsx
+++ b/input.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -359,7 +359,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
